--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-desired-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-desired-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="120">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,43 +40,70 @@
     <t>name</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>arrested</t>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>fraud</t>
   </si>
   <si>
     <t>hell</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>collapse</t>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>poor</t>
   </si>
   <si>
     <t>shit</t>
@@ -85,70 +112,70 @@
     <t>uncertainty</t>
   </si>
   <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>fake</t>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>anxiety</t>
   </si>
   <si>
     <t>pressure</t>
   </si>
   <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>anxiety</t>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>recession</t>
   </si>
   <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>drop</t>
+    <t>fight</t>
   </si>
   <si>
     <t>stop</t>
@@ -163,27 +190,36 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>special</t>
   </si>
   <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
@@ -193,31 +229,46 @@
     <t>safety</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>healthy</t>
   </si>
   <si>
     <t>fresh</t>
@@ -226,16 +277,13 @@
     <t>strong</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>contest</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>clean</t>
   </si>
   <si>
     <t>join</t>
@@ -244,82 +292,88 @@
     <t>like</t>
   </si>
   <si>
-    <t>contest</t>
+    <t>key</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>key</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>give</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>give</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>security</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>ready</t>
   </si>
   <si>
     <t>available</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>essential</t>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>online</t>
+    <t>home</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
+    <t>stock</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -677,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -685,10 +739,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -749,10 +803,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -767,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -796,13 +850,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9705882352941176</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -814,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="K4">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M4">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -838,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -846,13 +900,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -864,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="K5">
-        <v>0.9661016949152542</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="M5">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -888,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -896,13 +950,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9130434782608695</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -914,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="K6">
-        <v>0.9574468085106383</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L6">
         <v>45</v>
@@ -938,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -946,13 +1000,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8974358974358975</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C7">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -967,16 +1021,16 @@
         <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K7">
-        <v>0.9444444444444444</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -996,13 +1050,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8947368421052632</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1014,31 +1068,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="L8">
+        <v>34</v>
+      </c>
+      <c r="M8">
+        <v>34</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>2</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8">
-        <v>0.9017857142857143</v>
-      </c>
-      <c r="L8">
-        <v>101</v>
-      </c>
-      <c r="M8">
-        <v>101</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1046,13 +1100,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.868421052631579</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1064,19 +1118,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="K9">
-        <v>0.8943661971830986</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L9">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1088,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1096,13 +1150,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8648648648648649</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="C10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1117,16 +1171,16 @@
         <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="K10">
-        <v>0.8833333333333333</v>
+        <v>0.9084507042253521</v>
       </c>
       <c r="L10">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="M10">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1138,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1167,16 +1221,16 @@
         <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K11">
-        <v>0.8828125</v>
+        <v>0.9017857142857143</v>
       </c>
       <c r="L11">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="M11">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1188,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1196,13 +1250,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8611111111111112</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C12">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1214,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K12">
-        <v>0.8780487804878049</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L12">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="M12">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1238,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1246,13 +1300,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8458904109589042</v>
+        <v>0.8424657534246576</v>
       </c>
       <c r="C13">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D13">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1264,19 +1318,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="K13">
-        <v>0.8627450980392157</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L13">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="M13">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1288,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1296,13 +1350,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8076923076923077</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1314,19 +1368,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="K14">
-        <v>0.8461538461538461</v>
+        <v>0.8828125</v>
       </c>
       <c r="L14">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="M14">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1338,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1346,13 +1400,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1367,16 +1421,16 @@
         <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="K15">
-        <v>0.8448275862068966</v>
+        <v>0.8780487804878049</v>
       </c>
       <c r="L15">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="M15">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1388,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1396,13 +1450,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7435897435897436</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1414,19 +1468,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="K16">
-        <v>0.84</v>
+        <v>0.8627450980392157</v>
       </c>
       <c r="L16">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M16">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1438,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1446,13 +1500,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7391304347826086</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1464,19 +1518,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K17">
-        <v>0.839622641509434</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L17">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="M17">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1488,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1496,13 +1550,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7368421052631579</v>
+        <v>0.8125</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1514,19 +1568,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="K18">
-        <v>0.8125</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L18">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="M18">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1538,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1546,13 +1600,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7272727272727273</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1564,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K19">
-        <v>0.804177545691906</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="L19">
-        <v>308</v>
+        <v>89</v>
       </c>
       <c r="M19">
-        <v>308</v>
+        <v>89</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1588,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>75</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1596,13 +1650,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7037037037037037</v>
+        <v>0.8</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1614,19 +1668,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="K20">
-        <v>0.7936507936507936</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L20">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1638,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1646,13 +1700,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6944444444444444</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1664,19 +1718,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="K21">
-        <v>0.776595744680851</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L21">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1688,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1696,13 +1750,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6923076923076923</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1714,19 +1768,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="K22">
-        <v>0.7647058823529411</v>
+        <v>0.8125</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1738,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1746,13 +1800,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6842105263157895</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1764,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="K23">
-        <v>0.7291666666666666</v>
+        <v>0.8093994778067886</v>
       </c>
       <c r="L23">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="M23">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1788,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1796,13 +1850,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6774193548387096</v>
+        <v>0.75</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1814,19 +1868,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="K24">
-        <v>0.7272727272727273</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1838,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1846,13 +1900,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6774193548387096</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C25">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D25">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1867,10 +1921,10 @@
         <v>10</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K25">
-        <v>0.7222222222222222</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L25">
         <v>26</v>
@@ -1888,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1896,13 +1950,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6756756756756757</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1914,19 +1968,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="K26">
-        <v>0.7186440677966102</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L26">
-        <v>212</v>
+        <v>22</v>
       </c>
       <c r="M26">
-        <v>212</v>
+        <v>22</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1938,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>83</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1946,13 +2000,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6363636363636364</v>
+        <v>0.7</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1964,19 +2018,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K27">
+        <v>0.7659574468085106</v>
+      </c>
+      <c r="L27">
         <v>72</v>
       </c>
-      <c r="K27">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="L27">
-        <v>17</v>
-      </c>
       <c r="M27">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1988,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1996,13 +2050,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5652173913043478</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2014,19 +2068,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K28">
-        <v>0.7037037037037037</v>
+        <v>0.76</v>
       </c>
       <c r="L28">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M28">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2038,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2046,13 +2100,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5562015503875969</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C29">
-        <v>287</v>
+        <v>21</v>
       </c>
       <c r="D29">
-        <v>287</v>
+        <v>21</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2064,19 +2118,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>229</v>
+        <v>10</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="K29">
-        <v>0.6976744186046512</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2088,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2096,13 +2150,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5234899328859061</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C30">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="D30">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2114,19 +2168,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K30">
-        <v>0.6882352941176471</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L30">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c r="M30">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2138,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>106</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2146,13 +2200,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4933333333333333</v>
+        <v>0.625</v>
       </c>
       <c r="C31">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D31">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2164,19 +2218,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K31">
-        <v>0.6818181818181818</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2188,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2196,13 +2250,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.417989417989418</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C32">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2214,19 +2268,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="K32">
-        <v>0.6741573033707865</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L32">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="M32">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2238,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2246,13 +2300,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4117647058823529</v>
+        <v>0.5910852713178295</v>
       </c>
       <c r="C33">
-        <v>21</v>
+        <v>305</v>
       </c>
       <c r="D33">
-        <v>21</v>
+        <v>305</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2264,19 +2318,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>30</v>
+        <v>211</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K33">
-        <v>0.6666666666666666</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L33">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M33">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2288,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2296,13 +2350,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4067796610169492</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C34">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D34">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2314,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K34">
-        <v>0.6666666666666666</v>
+        <v>0.7254237288135593</v>
       </c>
       <c r="L34">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="M34">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2338,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2346,13 +2400,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.392156862745098</v>
+        <v>0.5503355704697986</v>
       </c>
       <c r="C35">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="D35">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2364,19 +2418,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K35">
-        <v>0.6485355648535565</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="L35">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="M35">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2388,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>84</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2396,13 +2450,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3766233766233766</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="C36">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D36">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2414,19 +2468,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K36">
-        <v>0.5957446808510638</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L36">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M36">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2438,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2446,13 +2500,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3111111111111111</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C37">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D37">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2464,19 +2518,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K37">
-        <v>0.5857142857142857</v>
+        <v>0.6882352941176471</v>
       </c>
       <c r="L37">
-        <v>41</v>
+        <v>234</v>
       </c>
       <c r="M37">
-        <v>41</v>
+        <v>234</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2488,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>29</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2496,13 +2550,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2545454545454545</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C38">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D38">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2514,19 +2568,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K38">
-        <v>0.5846153846153846</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L38">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M38">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2538,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2546,13 +2600,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2372881355932203</v>
+        <v>0.5</v>
       </c>
       <c r="C39">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D39">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2564,19 +2618,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="K39">
-        <v>0.5757575757575758</v>
+        <v>0.6569037656903766</v>
       </c>
       <c r="L39">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="M39">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2588,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>14</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2596,13 +2650,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2341269841269841</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C40">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="D40">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2614,13 +2668,13 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>193</v>
+        <v>15</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K40">
-        <v>0.5753424657534246</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L40">
         <v>42</v>
@@ -2638,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2646,13 +2700,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.09651474530831099</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="C41">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D41">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2664,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>337</v>
+        <v>28</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="K41">
-        <v>0.55</v>
+        <v>0.6404494382022472</v>
       </c>
       <c r="L41">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="M41">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2688,15 +2742,39 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.4181818181818182</v>
+      </c>
+      <c r="C42">
+        <v>23</v>
+      </c>
+      <c r="D42">
+        <v>23</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>32</v>
+      </c>
       <c r="J42" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="K42">
-        <v>0.5483870967741935</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L42">
         <v>17</v>
@@ -2714,21 +2792,45 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.4155844155844156</v>
+      </c>
+      <c r="C43">
+        <v>32</v>
+      </c>
+      <c r="D43">
+        <v>32</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>45</v>
+      </c>
       <c r="J43" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K43">
-        <v>0.5409836065573771</v>
+        <v>0.625</v>
       </c>
       <c r="L43">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M43">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2740,249 +2842,417 @@
         <v>0</v>
       </c>
       <c r="Q43">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.4067796610169492</v>
+      </c>
+      <c r="C44">
+        <v>24</v>
+      </c>
+      <c r="D44">
+        <v>24</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>35</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K44">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="L44">
+        <v>17</v>
+      </c>
+      <c r="M44">
+        <v>17</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.4</v>
+      </c>
+      <c r="C45">
+        <v>36</v>
+      </c>
+      <c r="D45">
+        <v>36</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>54</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K45">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="L45">
+        <v>37</v>
+      </c>
+      <c r="M45">
+        <v>37</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.3898305084745763</v>
+      </c>
+      <c r="C46">
+        <v>23</v>
+      </c>
+      <c r="D46">
+        <v>23</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>36</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K46">
+        <v>0.5857142857142857</v>
+      </c>
+      <c r="L46">
+        <v>41</v>
+      </c>
+      <c r="M46">
+        <v>41</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.3650793650793651</v>
+      </c>
+      <c r="C47">
+        <v>69</v>
+      </c>
+      <c r="D47">
+        <v>69</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>120</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K47">
+        <v>0.5753424657534246</v>
+      </c>
+      <c r="L47">
+        <v>42</v>
+      </c>
+      <c r="M47">
+        <v>42</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.325</v>
+      </c>
+      <c r="C48">
+        <v>26</v>
+      </c>
+      <c r="D48">
+        <v>26</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>54</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K48">
+        <v>0.575</v>
+      </c>
+      <c r="L48">
+        <v>23</v>
+      </c>
+      <c r="M48">
+        <v>23</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.246031746031746</v>
+      </c>
+      <c r="C49">
+        <v>62</v>
+      </c>
+      <c r="D49">
+        <v>62</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>190</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K49">
+        <v>0.5625</v>
+      </c>
+      <c r="L49">
+        <v>36</v>
+      </c>
+      <c r="M49">
+        <v>36</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K44">
-        <v>0.5384615384615384</v>
-      </c>
-      <c r="L44">
-        <v>42</v>
-      </c>
-      <c r="M44">
-        <v>42</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K45">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L45">
-        <v>15</v>
-      </c>
-      <c r="M45">
-        <v>15</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
+    <row r="50" spans="1:17">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.128686327077748</v>
+      </c>
+      <c r="C50">
+        <v>48</v>
+      </c>
+      <c r="D50">
+        <v>48</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>325</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K50">
+        <v>0.5428571428571428</v>
+      </c>
+      <c r="L50">
+        <v>19</v>
+      </c>
+      <c r="M50">
+        <v>19</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="J51" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K51">
+        <v>0.5256410256410257</v>
+      </c>
+      <c r="L51">
+        <v>41</v>
+      </c>
+      <c r="M51">
+        <v>41</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="J52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K52">
+        <v>0.5</v>
+      </c>
+      <c r="L52">
         <v>13</v>
       </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K46">
+      <c r="M52">
+        <v>13</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="J53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K53">
         <v>0.4761904761904762</v>
-      </c>
-      <c r="L46">
-        <v>20</v>
-      </c>
-      <c r="M46">
-        <v>20</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K47">
-        <v>0.475</v>
-      </c>
-      <c r="L47">
-        <v>19</v>
-      </c>
-      <c r="M47">
-        <v>19</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K48">
-        <v>0.3714285714285714</v>
-      </c>
-      <c r="L48">
-        <v>13</v>
-      </c>
-      <c r="M48">
-        <v>13</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="10:17">
-      <c r="J49" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K49">
-        <v>0.3559322033898305</v>
-      </c>
-      <c r="L49">
-        <v>21</v>
-      </c>
-      <c r="M49">
-        <v>21</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="10:17">
-      <c r="J50" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K50">
-        <v>0.3125</v>
-      </c>
-      <c r="L50">
-        <v>20</v>
-      </c>
-      <c r="M50">
-        <v>20</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="10:17">
-      <c r="J51" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K51">
-        <v>0.1259842519685039</v>
-      </c>
-      <c r="L51">
-        <v>16</v>
-      </c>
-      <c r="M51">
-        <v>16</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="52" spans="10:17">
-      <c r="J52" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K52">
-        <v>0.09375</v>
-      </c>
-      <c r="L52">
-        <v>39</v>
-      </c>
-      <c r="M52">
-        <v>39</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="53" spans="10:17">
-      <c r="J53" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K53">
-        <v>0.04784688995215311</v>
       </c>
       <c r="L53">
         <v>20</v>
@@ -3000,48 +3270,48 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="J54" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K54">
-        <v>0.01789709172259508</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L54">
+        <v>13</v>
+      </c>
+      <c r="M54">
+        <v>13</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="J55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K55">
+        <v>0.2711864406779661</v>
+      </c>
+      <c r="L55">
         <v>16</v>
       </c>
-      <c r="M54">
+      <c r="M55">
         <v>16</v>
       </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="55" spans="10:17">
-      <c r="J55" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K55">
-        <v>0.01664816870144284</v>
-      </c>
-      <c r="L55">
-        <v>15</v>
-      </c>
-      <c r="M55">
-        <v>15</v>
-      </c>
       <c r="N55">
         <v>1</v>
       </c>
@@ -3052,21 +3322,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="56" spans="10:17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="J56" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K56">
-        <v>0.007932804479701353</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L56">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M56">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3078,7 +3348,241 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>2126</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="J57" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K57">
+        <v>0.1937799043062201</v>
+      </c>
+      <c r="L57">
+        <v>81</v>
+      </c>
+      <c r="M57">
+        <v>81</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="J58" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K58">
+        <v>0.1355140186915888</v>
+      </c>
+      <c r="L58">
+        <v>29</v>
+      </c>
+      <c r="M58">
+        <v>30</v>
+      </c>
+      <c r="N58">
+        <v>0.97</v>
+      </c>
+      <c r="O58">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="J59" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K59">
+        <v>0.1322115384615385</v>
+      </c>
+      <c r="L59">
+        <v>55</v>
+      </c>
+      <c r="M59">
+        <v>55</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="J60" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K60">
+        <v>0.1209302325581395</v>
+      </c>
+      <c r="L60">
+        <v>26</v>
+      </c>
+      <c r="M60">
+        <v>26</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="J61" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K61">
+        <v>0.06823266219239374</v>
+      </c>
+      <c r="L61">
+        <v>61</v>
+      </c>
+      <c r="M61">
+        <v>61</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="J62" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K62">
+        <v>0.05504587155963303</v>
+      </c>
+      <c r="L62">
+        <v>18</v>
+      </c>
+      <c r="M62">
+        <v>18</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="J63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K63">
+        <v>0.04772475027746948</v>
+      </c>
+      <c r="L63">
+        <v>43</v>
+      </c>
+      <c r="M63">
+        <v>43</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="J64" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K64">
+        <v>0.01728971962616822</v>
+      </c>
+      <c r="L64">
+        <v>37</v>
+      </c>
+      <c r="M64">
+        <v>40</v>
+      </c>
+      <c r="N64">
+        <v>0.93</v>
+      </c>
+      <c r="O64">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K65">
+        <v>0.008370895041854474</v>
+      </c>
+      <c r="L65">
+        <v>26</v>
+      </c>
+      <c r="M65">
+        <v>27</v>
+      </c>
+      <c r="N65">
+        <v>0.96</v>
+      </c>
+      <c r="O65">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>3080</v>
       </c>
     </row>
   </sheetData>
